--- a/layout/ClueLayoutTests.xlsx
+++ b/layout/ClueLayoutTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\millw\CSCI 306 Workspace\ClueGame\layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590191E0-8F76-4B61-A9FA-D3F40B88F214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BD3CE0-2F42-414F-9B74-66DE9A0251C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="49">
   <si>
     <t>X</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Red - Test Occupied</t>
+  </si>
+  <si>
+    <t>Notes: Cell E* also used for light orange</t>
   </si>
 </sst>
 </file>
@@ -223,7 +226,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +369,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFAE5D"/>
         <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81E1FF"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81E1FF"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81E1FF"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
   </fills>
@@ -381,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -440,8 +473,17 @@
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +492,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF81E1FF"/>
       <color rgb="FFFFAE5D"/>
       <color rgb="FFFFC081"/>
       <color rgb="FFE26100"/>
-      <color rgb="FF81E1FF"/>
       <color rgb="FFA3C2FF"/>
     </mruColors>
   </colors>
@@ -672,7 +714,7 @@
   <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -927,7 +969,7 @@
       <c r="V3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="57" t="s">
+      <c r="W3" s="56" t="s">
         <v>5</v>
       </c>
       <c r="X3" s="48" t="s">
@@ -1122,7 +1164,7 @@
       <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="60" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -1307,7 +1349,7 @@
       <c r="P8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="61" t="s">
         <v>17</v>
       </c>
       <c r="R8" s="6" t="s">
@@ -1369,7 +1411,7 @@
       <c r="J9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="44" t="s">
         <v>1</v>
       </c>
       <c r="L9" s="13" t="s">
@@ -1571,7 +1613,7 @@
       <c r="X11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Y11" s="5" t="s">
+      <c r="Y11" s="62" t="s">
         <v>1</v>
       </c>
       <c r="AA11" s="29"/>
@@ -1646,11 +1688,14 @@
       <c r="W12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="X12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>1</v>
+      <c r="X12" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="59" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -1726,7 +1771,7 @@
       <c r="X13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Y13" s="5" t="s">
+      <c r="Y13" s="64" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1788,7 +1833,7 @@
       <c r="S14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="8" t="s">
+      <c r="T14" s="57" t="s">
         <v>10</v>
       </c>
       <c r="U14" s="14" t="s">
@@ -2004,7 +2049,7 @@
       <c r="N17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="65" t="s">
         <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
@@ -2069,10 +2114,10 @@
       <c r="J18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="66" t="s">
         <v>24</v>
       </c>
       <c r="M18" s="7" t="s">
@@ -2241,7 +2286,7 @@
       <c r="P20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="61" t="s">
         <v>28</v>
       </c>
       <c r="R20" s="6" t="s">
@@ -2473,13 +2518,13 @@
       <c r="P23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q23" s="8" t="s">
+      <c r="Q23" s="65" t="s">
         <v>10</v>
       </c>
       <c r="R23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="S23" s="58" t="s">
         <v>1</v>
       </c>
       <c r="T23" s="44" t="s">
@@ -2488,7 +2533,7 @@
       <c r="U23" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="19" t="s">
+      <c r="V23" s="6" t="s">
         <v>29</v>
       </c>
       <c r="W23" s="52" t="s">
@@ -2551,7 +2596,7 @@
       <c r="P24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="65" t="s">
         <v>10</v>
       </c>
       <c r="R24" s="5" t="s">

--- a/layout/ClueLayoutTests.xlsx
+++ b/layout/ClueLayoutTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\millw\CSCI 306 Workspace\ClueGame\layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BD3CE0-2F42-414F-9B74-66DE9A0251C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28C2843-7C51-4445-A296-6A847FCEB9C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="47">
   <si>
     <t>X</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>G#</t>
-  </si>
-  <si>
-    <t>W^</t>
-  </si>
-  <si>
-    <t>Wv</t>
   </si>
   <si>
     <t>H^</t>
@@ -414,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -471,7 +465,6 @@
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -714,7 +707,7 @@
   <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -819,7 +812,7 @@
         <v>23</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -899,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="AA2" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -969,7 +962,7 @@
       <c r="V3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="56" t="s">
+      <c r="W3" s="55" t="s">
         <v>5</v>
       </c>
       <c r="X3" s="48" t="s">
@@ -979,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="AA3" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -1059,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="AA4" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -1139,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="AA5" s="33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -1164,7 +1157,7 @@
       <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="59" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -1297,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="AA7" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -1307,11 +1300,11 @@
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="54" t="s">
-        <v>15</v>
+      <c r="D8" s="53" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>0</v>
@@ -1329,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>1</v>
@@ -1349,8 +1342,8 @@
       <c r="P8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="61" t="s">
-        <v>17</v>
+      <c r="Q8" s="60" t="s">
+        <v>15</v>
       </c>
       <c r="R8" s="6" t="s">
         <v>12</v>
@@ -1377,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="AA8" s="43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -1388,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>0</v>
@@ -1457,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="AA9" s="42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -1468,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>0</v>
@@ -1537,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="AA10" s="41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -1548,13 +1541,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>0</v>
@@ -1613,7 +1606,7 @@
       <c r="X11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Y11" s="62" t="s">
+      <c r="Y11" s="61" t="s">
         <v>1</v>
       </c>
       <c r="AA11" s="29"/>
@@ -1638,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>0</v>
@@ -1688,14 +1681,14 @@
       <c r="W12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="X12" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="59" t="s">
-        <v>48</v>
+      <c r="X12" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="58" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -1736,25 +1729,25 @@
         <v>1</v>
       </c>
       <c r="M13" s="47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R13" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S13" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T13" s="5" t="s">
         <v>1</v>
@@ -1771,7 +1764,7 @@
       <c r="X13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Y13" s="64" t="s">
+      <c r="Y13" s="63" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1813,27 +1806,27 @@
         <v>1</v>
       </c>
       <c r="M14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>38</v>
-      </c>
       <c r="Q14" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R14" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S14" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="T14" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="56" t="s">
         <v>10</v>
       </c>
       <c r="U14" s="14" t="s">
@@ -1890,25 +1883,25 @@
         <v>1</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R15" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S15" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>1</v>
@@ -1934,16 +1927,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>0</v>
@@ -1967,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>1</v>
@@ -1979,10 +1972,10 @@
         <v>1</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S16" s="7" t="s">
         <v>1</v>
@@ -2011,19 +2004,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>10</v>
@@ -2049,8 +2042,8 @@
       <c r="N17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O17" s="65" t="s">
-        <v>24</v>
+      <c r="O17" s="64" t="s">
+        <v>22</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>1</v>
@@ -2088,19 +2081,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>10</v>
@@ -2114,11 +2107,11 @@
       <c r="J18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="66" t="s">
-        <v>24</v>
+      <c r="K18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="65" t="s">
+        <v>22</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>1</v>
@@ -2127,19 +2120,19 @@
         <v>1</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T18" s="14" t="s">
         <v>0</v>
@@ -2165,58 +2158,58 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O19" s="15" t="s">
+      <c r="P19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P19" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="Q19" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R19" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T19" s="14" t="s">
         <v>0</v>
@@ -2242,19 +2235,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>1</v>
@@ -2269,31 +2262,31 @@
         <v>1</v>
       </c>
       <c r="K20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q20" s="61" t="s">
-        <v>28</v>
-      </c>
       <c r="R20" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T20" s="14" t="s">
         <v>0</v>
@@ -2308,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="X20" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -2322,16 +2315,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>14</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>1</v>
@@ -2340,16 +2333,16 @@
         <v>1</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>1</v>
@@ -2358,19 +2351,19 @@
         <v>1</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T21" s="14" t="s">
         <v>0</v>
@@ -2379,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="V21" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y21" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -2396,13 +2389,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>1</v>
@@ -2417,16 +2410,16 @@
         <v>1</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>1</v>
@@ -2435,10 +2428,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q22" s="14" t="s">
         <v>0</v>
@@ -2456,16 +2449,16 @@
         <v>0</v>
       </c>
       <c r="V22" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W22" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X22" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y22" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z22" s="26"/>
     </row>
@@ -2474,13 +2467,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>1</v>
@@ -2495,16 +2488,16 @@
         <v>1</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>1</v>
@@ -2513,18 +2506,18 @@
         <v>1</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="64" t="s">
         <v>10</v>
       </c>
       <c r="R23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S23" s="58" t="s">
+      <c r="S23" s="57" t="s">
         <v>1</v>
       </c>
       <c r="T23" s="44" t="s">
@@ -2534,16 +2527,16 @@
         <v>3</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W23" s="52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X23" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y23" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z23" s="26"/>
     </row>
@@ -2552,13 +2545,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>1</v>
@@ -2573,16 +2566,16 @@
         <v>1</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>1</v>
@@ -2591,12 +2584,12 @@
         <v>1</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="64" t="s">
         <v>10</v>
       </c>
       <c r="R24" s="5" t="s">
@@ -2612,16 +2605,16 @@
         <v>3</v>
       </c>
       <c r="V24" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W24" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X24" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y24" s="34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z24" s="26"/>
     </row>
